--- a/Bin/db/files/HiCONiS Commissioning Report-Summary.xlsx
+++ b/Bin/db/files/HiCONiS Commissioning Report-Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pjh\Dev\Lang\Delphi\Project\GSManage\Bin\db\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A93A68B-2BFB-4701-BA50-3EFDDB4E07E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB962A4-190A-41B2-B54A-F1F88606264C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13440" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,14 +409,14 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="굴림"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="굴림"/>
+      <name val="굴림체"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -822,45 +822,177 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="16" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="17" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="17" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -870,34 +1002,13 @@
     <xf numFmtId="49" fontId="28" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -930,121 +1041,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,16 +1185,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>1276350</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>190500</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1272,15 +1272,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>657225</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>657225</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1358,15 +1358,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:colOff>438150</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>866775</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1443,16 +1443,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>876300</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>742950</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1530,15 +1530,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>409575</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1616,15 +1616,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>361950</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2018,8 +2018,8 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2047,14 +2047,14 @@
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63" t="s">
+      <c r="J1" s="105"/>
+      <c r="K1" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="63"/>
+      <c r="L1" s="105"/>
     </row>
     <row r="2" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="38" t="s">
@@ -2066,10 +2066,10 @@
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="42" t="s">
@@ -2083,44 +2083,44 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:12" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="71" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="56" t="s">
+      <c r="F4" s="113"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="75"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="112"/>
     </row>
     <row r="5" spans="1:12" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="71" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="57" t="s">
+      <c r="F5" s="113"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="75"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="112"/>
     </row>
     <row r="6" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
@@ -2136,19 +2136,19 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="H7" s="80" t="s">
+      <c r="B7" s="114"/>
+      <c r="H7" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="81">
+      <c r="I7" s="117"/>
+      <c r="J7" s="83">
         <v>2</v>
       </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
     </row>
     <row r="8" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
@@ -2191,52 +2191,52 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="G11" s="68" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="85"/>
+      <c r="G11" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="95"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="98"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="90"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="95"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="98"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="67"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -2249,19 +2249,19 @@
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="85" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="86"/>
+      <c r="I16" s="82"/>
       <c r="J16" s="26" t="s">
         <v>3</v>
       </c>
@@ -2273,410 +2273,410 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="47"/>
+      <c r="A17" s="118"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="49"/>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="51"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="53"/>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="51"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="53"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="51"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="53"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="50"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="52"/>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="51"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="53"/>
     </row>
     <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="50"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="52"/>
     </row>
     <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="51"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="53"/>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="51"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="53"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="51"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="53"/>
     </row>
     <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="51"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="53"/>
     </row>
     <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="51"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="53"/>
     </row>
     <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="51"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="53"/>
     </row>
     <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="51"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="53"/>
     </row>
     <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="51"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="53"/>
     </row>
     <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="51"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="53"/>
     </row>
     <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="58"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="51"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="53"/>
     </row>
     <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="58"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="51"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="53"/>
     </row>
     <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="58"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="51"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="53"/>
     </row>
     <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="51"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="53"/>
     </row>
     <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="51"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="53"/>
     </row>
     <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="58"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="51"/>
+      <c r="A38" s="102"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="53"/>
     </row>
     <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="58"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="51"/>
+      <c r="A39" s="102"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="53"/>
     </row>
     <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="58"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="51"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="53"/>
     </row>
     <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="51"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="53"/>
     </row>
     <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="58"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="51"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="53"/>
     </row>
     <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="58"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="51"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="53"/>
     </row>
     <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="58"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="51"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="53"/>
     </row>
     <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="58"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="51"/>
+      <c r="A45" s="102"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="53"/>
     </row>
     <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="39" t="s">
@@ -2688,10 +2688,10 @@
       <c r="E46" s="40"/>
       <c r="F46" s="40"/>
       <c r="G46" s="41"/>
-      <c r="H46" s="104" t="s">
+      <c r="H46" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I46" s="86"/>
+      <c r="I46" s="82"/>
       <c r="J46" s="27">
         <f>SUM(J17:J45)</f>
         <v>0</v>
@@ -2700,144 +2700,144 @@
       <c r="L46" s="28"/>
     </row>
     <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="99" t="s">
+      <c r="A47" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="102"/>
-      <c r="I47" s="102"/>
-      <c r="J47" s="103"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="80"/>
       <c r="K47" s="29" t="s">
         <v>5</v>
       </c>
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="99" t="s">
+      <c r="A48" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="100"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="101"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="65"/>
       <c r="K48" s="30" t="s">
         <v>8</v>
       </c>
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="99" t="s">
+      <c r="A49" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="100"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="101"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="65"/>
       <c r="K49" s="30" t="s">
         <v>9</v>
       </c>
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="99" t="s">
+      <c r="A50" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="101"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="65"/>
       <c r="K50" s="31" t="s">
         <v>10</v>
       </c>
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="99" t="s">
+      <c r="A51" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="101"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="65"/>
       <c r="K51" s="30" t="s">
         <v>11</v>
       </c>
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="99" t="s">
+      <c r="A52" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="100"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="100"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="100"/>
-      <c r="I52" s="100"/>
-      <c r="J52" s="101"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65"/>
       <c r="K52" s="32" t="s">
         <v>14</v>
       </c>
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="110" t="s">
+      <c r="A53" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="100"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="100"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="101"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="65"/>
       <c r="K53" s="32" t="s">
         <v>15</v>
       </c>
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="111" t="s">
+      <c r="A54" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="112"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="112"/>
-      <c r="J54" s="113"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="69"/>
       <c r="K54" s="33" t="s">
         <v>17</v>
       </c>
@@ -2858,89 +2858,97 @@
       <c r="L55" s="3"/>
     </row>
     <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="68" t="s">
+      <c r="A56" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="69"/>
-      <c r="C56" s="70"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="72"/>
     </row>
     <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="114"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="115"/>
-      <c r="J57" s="115"/>
-      <c r="K57" s="115"/>
-      <c r="L57" s="116"/>
+      <c r="A57" s="73"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="75"/>
     </row>
     <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="117"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="118"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="118"/>
-      <c r="K58" s="118"/>
-      <c r="L58" s="119"/>
+      <c r="A58" s="76"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="77"/>
+      <c r="L58" s="78"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="68" t="s">
+      <c r="A60" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="69"/>
-      <c r="C60" s="70"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="72"/>
     </row>
     <row r="61" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="105"/>
-      <c r="C61" s="105"/>
-      <c r="D61" s="105"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="105"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="106" t="s">
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="I61" s="107"/>
-      <c r="J61" s="108"/>
-      <c r="K61" s="108"/>
-      <c r="L61" s="109"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A57:L58"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A12:E13"/>
-    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="A44:G44"/>
     <mergeCell ref="A45:G45"/>
     <mergeCell ref="A22:G22"/>
@@ -2957,40 +2965,32 @@
     <mergeCell ref="A39:G39"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A12:E13"/>
+    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A57:L58"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -3025,16 +3025,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>1276350</xdr:colOff>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>133350</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3048,15 +3048,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>257175</xdr:colOff>
+                    <xdr:colOff>657225</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>257175</xdr:colOff>
+                    <xdr:colOff>657225</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>152400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3070,15 +3070,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>342900</xdr:colOff>
+                    <xdr:colOff>438150</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>866775</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3091,16 +3091,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>876300</xdr:colOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
+                    <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>742950</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3114,15 +3114,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:colOff>409575</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
+                    <xdr:rowOff>133350</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>409575</xdr:colOff>
+                    <xdr:colOff>428625</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3136,15 +3136,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>361950</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
